--- a/dataSetGroupTesting/temp.xlsx
+++ b/dataSetGroupTesting/temp.xlsx
@@ -5010,7 +5010,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
